--- a/Modelo/datos/Intermedias/matriz_sin_redundancia_v2.xlsx
+++ b/Modelo/datos/Intermedias/matriz_sin_redundancia_v2.xlsx
@@ -1,21 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a7d57e8591b932/Escritorio/CICS/2025/Tesis/Objetivos de Aprendizaje/Modelo/datos/Intermedias/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_617EBED58F79A8D366075C52F37BD2729AC48A06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA66AFF-2B8D-43D7-B9BF-2EF2E70EFD3C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14303" yWindow="-1155" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Que_es_pension</t>
+  </si>
+  <si>
+    <t>Pension_Autofinanciada</t>
+  </si>
+  <si>
+    <t>Entidades_Reguladoras</t>
+  </si>
+  <si>
+    <t>AFP</t>
+  </si>
+  <si>
+    <t>Compania_Seguros</t>
+  </si>
+  <si>
+    <t>Diferencia_AFP_CSV</t>
+  </si>
+  <si>
+    <t>Cotizaciones_Previsionales</t>
+  </si>
+  <si>
+    <t>Saldo_Cuenta_Individual</t>
+  </si>
+  <si>
+    <t>Proceso_Solicitud</t>
+  </si>
+  <si>
+    <t>Inicio_Proceso_AFP</t>
+  </si>
+  <si>
+    <t>Formulario_Solicitud_Pension</t>
+  </si>
+  <si>
+    <t>Certificado_de_Saldo</t>
+  </si>
+  <si>
+    <t>Definicion_SCOMP</t>
+  </si>
+  <si>
+    <t>Solicitud_Ofertas</t>
+  </si>
+  <si>
+    <t>Certificado_Oferta</t>
+  </si>
+  <si>
+    <t>Opciones_Post_Oferta</t>
+  </si>
+  <si>
+    <t>Remate</t>
+  </si>
+  <si>
+    <t>Evaluacion_Ofertas</t>
+  </si>
+  <si>
+    <t>Acepta_Rechazo_Oferta</t>
+  </si>
+  <si>
+    <t>Formulario_Seleccion_Modalidad</t>
+  </si>
+  <si>
+    <t>Materializacion_Eleccion</t>
+  </si>
+  <si>
+    <t>Causas_Finalizacion_Proceso</t>
+  </si>
+  <si>
+    <t>Traslado_Fondos</t>
+  </si>
+  <si>
+    <t>Inicio_Pagos</t>
+  </si>
+  <si>
+    <t>Errores_Formularios</t>
+  </si>
+  <si>
+    <t>Demora_Certificados</t>
+  </si>
+  <si>
+    <t>Modalidades_Pensiones</t>
+  </si>
+  <si>
+    <t>Comparacion_modalidades</t>
+  </si>
+  <si>
+    <t>Expectativa_Vida</t>
+  </si>
+  <si>
+    <t>Riesgo_Longevidad</t>
+  </si>
+  <si>
+    <t>Riesgo_Rentabilidad</t>
+  </si>
+  <si>
+    <t>Tasa_Interes_Tecnica_RP</t>
+  </si>
+  <si>
+    <t>Tasa_Interes_RV</t>
+  </si>
+  <si>
+    <t>Cambio_Modalidad</t>
+  </si>
+  <si>
+    <t>Renta_Vitalicia</t>
+  </si>
+  <si>
+    <t>Requisitos_RV</t>
+  </si>
+  <si>
+    <t>Condiciones_Especiales_RV</t>
+  </si>
+  <si>
+    <t>Periodo_Garantizado</t>
+  </si>
+  <si>
+    <t>Clausula_Incremento_Sobrevivencia</t>
+  </si>
+  <si>
+    <t>Aumento_Temporal</t>
+  </si>
+  <si>
+    <t>Calculo_Renta_Vitalicia</t>
+  </si>
+  <si>
+    <t>Retiro_Programado</t>
+  </si>
+  <si>
+    <t>Requisitos_RP</t>
+  </si>
+  <si>
+    <t>Calculo_Retiro_Programado</t>
+  </si>
+  <si>
+    <t>RVI_RP</t>
+  </si>
+  <si>
+    <t>Requisitos_RVI_RP</t>
+  </si>
+  <si>
+    <t>RT_RVD</t>
+  </si>
+  <si>
+    <t>Periodo_Diferimiento</t>
+  </si>
+  <si>
+    <t>Requisitos_RT_RVD</t>
+  </si>
+  <si>
+    <t>Calculo_Rentas_Combinadas</t>
+  </si>
+  <si>
+    <t>Beneficiarios_Legales</t>
+  </si>
+  <si>
+    <t>Declaracion_Beneficiarios</t>
+  </si>
+  <si>
+    <t>Pension_Sobrevivencia</t>
+  </si>
+  <si>
+    <t>Ejemplo_Calculo_Pension_Sobrevivencia</t>
+  </si>
+  <si>
+    <t>Herencia</t>
+  </si>
+  <si>
+    <t>Quien_Recibe_Herencia</t>
+  </si>
+  <si>
+    <t>Como_Calcular_Herencia</t>
+  </si>
+  <si>
+    <t>Definicion_APV</t>
+  </si>
+  <si>
+    <t>Movilidad_Fondos_APV_Pension</t>
+  </si>
+  <si>
+    <t>ELD</t>
+  </si>
+  <si>
+    <t>Calculo_ELD</t>
+  </si>
+  <si>
+    <t>Tratamiento_Tributario_ELD</t>
+  </si>
+  <si>
+    <t>Impacto_Pension_ELD</t>
+  </si>
+  <si>
+    <t>Procedimiento_Retiro_ELD</t>
+  </si>
+  <si>
+    <t>Asesores_Prev</t>
+  </si>
+  <si>
+    <t>Comisiones_AFP</t>
+  </si>
+  <si>
+    <t>Comisiones_Aseguradoras</t>
+  </si>
+  <si>
+    <t>Impacto_Comisiones</t>
+  </si>
+  <si>
+    <t>Falta_Claridad_Comisiones</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +297,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +349,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +418,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,370 +594,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="BR70" sqref="B70:BR70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Concepto</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Que_es_pension</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pension_Autofinanciada</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Entidades_Reguladoras</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AFP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Compania_Seguros</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Diferencia_AFP_CSV</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizaciones_Previsionales</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Saldo_Cuenta_Individual</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Proceso_Solicitud</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio_Proceso_AFP</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Formulario_Solicitud_Pension</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Certificado_de_Saldo</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Definicion_SCOMP</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Solicitud_Ofertas</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Certificado_Oferta</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Opciones_Post_Oferta</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Remate</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Evaluacion_Ofertas</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Acepta_Rechazo_Oferta</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Formulario_Seleccion_Modalidad</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Materializacion_Eleccion</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Causas_Finalizacion_Proceso</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Traslado_Fondos</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio_Pagos</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Errores_Formularios</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Demora_Certificados</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Modalidades_Pensiones</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Comparacion_modalidades</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Expectativa_Vida</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Riesgo_Longevidad</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Riesgo_Rentabilidad</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Interes_Tecnica_RP</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Interes_RV</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Cambio_Modalidad</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Renta_Vitalicia</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Requisitos_RV</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Condiciones_Especiales_RV</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Periodo_Garantizado</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Clausula_Incremento_Sobrevivencia</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Aumento_Temporal</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Calculo_Renta_Vitalicia</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Retiro_Programado</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Requisitos_RP</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Calculo_Retiro_Programado</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>RVI_RP</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Requisitos_RVI_RP</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>RT_RVD</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Periodo_Diferimiento</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Requisitos_RT_RVD</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Calculo_Rentas_Combinadas</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Beneficiarios_Legales</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Declaracion_Beneficiarios</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Pension_Sobrevivencia</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Ejemplo_Calculo_Pension_Sobrevivencia</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Herencia</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Quien_Recibe_Herencia</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Como_Calcular_Herencia</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Definicion_APV</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Movilidad_Fondos_APV_Pension</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>ELD</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>Calculo_ELD</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Tratamiento_Tributario_ELD</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Impacto_Pension_ELD</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>Procedimiento_Retiro_ELD</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>Asesores_Prev</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>Comisiones_AFP</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>Comisiones_Aseguradoras</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>Impacto_Comisiones</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>Falta_Claridad_Comisiones</t>
-        </is>
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Que_es_pension</t>
-        </is>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -922,12 +1026,14 @@
       <c r="BR2">
         <v>0</v>
       </c>
+      <c r="BS2">
+        <f>SUM(B2:BR2)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pension_Autofinanciada</t>
-        </is>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1136,12 +1242,14 @@
       <c r="BR3">
         <v>0</v>
       </c>
+      <c r="BS3">
+        <f t="shared" ref="BS3:BS66" si="0">SUM(B3:BR3)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Entidades_Reguladoras</t>
-        </is>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1350,12 +1458,14 @@
       <c r="BR4">
         <v>0</v>
       </c>
+      <c r="BS4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AFP</t>
-        </is>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1564,12 +1674,14 @@
       <c r="BR5">
         <v>0</v>
       </c>
+      <c r="BS5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Compania_Seguros</t>
-        </is>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1778,12 +1890,14 @@
       <c r="BR6">
         <v>0</v>
       </c>
+      <c r="BS6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Diferencia_AFP_CSV</t>
-        </is>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1992,12 +2106,14 @@
       <c r="BR7">
         <v>0</v>
       </c>
+      <c r="BS7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cotizaciones_Previsionales</t>
-        </is>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2206,12 +2322,14 @@
       <c r="BR8">
         <v>0</v>
       </c>
+      <c r="BS8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Saldo_Cuenta_Individual</t>
-        </is>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2420,12 +2538,14 @@
       <c r="BR9">
         <v>0</v>
       </c>
+      <c r="BS9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Proceso_Solicitud</t>
-        </is>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2634,12 +2754,14 @@
       <c r="BR10">
         <v>0</v>
       </c>
+      <c r="BS10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Inicio_Proceso_AFP</t>
-        </is>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2848,12 +2970,14 @@
       <c r="BR11">
         <v>0</v>
       </c>
+      <c r="BS11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Formulario_Solicitud_Pension</t>
-        </is>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3062,12 +3186,14 @@
       <c r="BR12">
         <v>0</v>
       </c>
+      <c r="BS12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Certificado_de_Saldo</t>
-        </is>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3276,12 +3402,14 @@
       <c r="BR13">
         <v>0</v>
       </c>
+      <c r="BS13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Definicion_SCOMP</t>
-        </is>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3490,12 +3618,14 @@
       <c r="BR14">
         <v>0</v>
       </c>
+      <c r="BS14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Solicitud_Ofertas</t>
-        </is>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3704,12 +3834,14 @@
       <c r="BR15">
         <v>0</v>
       </c>
+      <c r="BS15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Certificado_Oferta</t>
-        </is>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3918,12 +4050,14 @@
       <c r="BR16">
         <v>0</v>
       </c>
+      <c r="BS16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Opciones_Post_Oferta</t>
-        </is>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4132,12 +4266,14 @@
       <c r="BR17">
         <v>0</v>
       </c>
+      <c r="BS17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Remate</t>
-        </is>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4346,12 +4482,14 @@
       <c r="BR18">
         <v>0</v>
       </c>
+      <c r="BS18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Evaluacion_Ofertas</t>
-        </is>
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4560,12 +4698,14 @@
       <c r="BR19">
         <v>0</v>
       </c>
+      <c r="BS19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Acepta_Rechazo_Oferta</t>
-        </is>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4774,12 +4914,14 @@
       <c r="BR20">
         <v>0</v>
       </c>
+      <c r="BS20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Formulario_Seleccion_Modalidad</t>
-        </is>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4988,12 +5130,14 @@
       <c r="BR21">
         <v>0</v>
       </c>
+      <c r="BS21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Materializacion_Eleccion</t>
-        </is>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5202,12 +5346,14 @@
       <c r="BR22">
         <v>0</v>
       </c>
+      <c r="BS22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Causas_Finalizacion_Proceso</t>
-        </is>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5416,12 +5562,14 @@
       <c r="BR23">
         <v>0</v>
       </c>
+      <c r="BS23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Traslado_Fondos</t>
-        </is>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5630,12 +5778,14 @@
       <c r="BR24">
         <v>0</v>
       </c>
+      <c r="BS24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Inicio_Pagos</t>
-        </is>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5844,12 +5994,14 @@
       <c r="BR25">
         <v>0</v>
       </c>
+      <c r="BS25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Errores_Formularios</t>
-        </is>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6058,12 +6210,14 @@
       <c r="BR26">
         <v>0</v>
       </c>
+      <c r="BS26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Demora_Certificados</t>
-        </is>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6272,12 +6426,14 @@
       <c r="BR27">
         <v>0</v>
       </c>
+      <c r="BS27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Modalidades_Pensiones</t>
-        </is>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6486,12 +6642,14 @@
       <c r="BR28">
         <v>0</v>
       </c>
+      <c r="BS28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Comparacion_modalidades</t>
-        </is>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6700,12 +6858,14 @@
       <c r="BR29">
         <v>0</v>
       </c>
+      <c r="BS29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Expectativa_Vida</t>
-        </is>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6914,12 +7074,14 @@
       <c r="BR30">
         <v>0</v>
       </c>
+      <c r="BS30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Riesgo_Longevidad</t>
-        </is>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7128,12 +7290,14 @@
       <c r="BR31">
         <v>0</v>
       </c>
+      <c r="BS31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Riesgo_Rentabilidad</t>
-        </is>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7342,12 +7506,14 @@
       <c r="BR32">
         <v>0</v>
       </c>
+      <c r="BS32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tasa_Interes_Tecnica_RP</t>
-        </is>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7556,12 +7722,14 @@
       <c r="BR33">
         <v>0</v>
       </c>
+      <c r="BS33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Tasa_Interes_RV</t>
-        </is>
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7770,12 +7938,14 @@
       <c r="BR34">
         <v>0</v>
       </c>
+      <c r="BS34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cambio_Modalidad</t>
-        </is>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7984,12 +8154,14 @@
       <c r="BR35">
         <v>0</v>
       </c>
+      <c r="BS35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Renta_Vitalicia</t>
-        </is>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8198,12 +8370,14 @@
       <c r="BR36">
         <v>0</v>
       </c>
+      <c r="BS36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Requisitos_RV</t>
-        </is>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -8412,12 +8586,14 @@
       <c r="BR37">
         <v>0</v>
       </c>
+      <c r="BS37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Condiciones_Especiales_RV</t>
-        </is>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8626,12 +8802,14 @@
       <c r="BR38">
         <v>0</v>
       </c>
+      <c r="BS38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Periodo_Garantizado</t>
-        </is>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8840,12 +9018,14 @@
       <c r="BR39">
         <v>0</v>
       </c>
+      <c r="BS39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Clausula_Incremento_Sobrevivencia</t>
-        </is>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9054,12 +9234,14 @@
       <c r="BR40">
         <v>0</v>
       </c>
+      <c r="BS40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Aumento_Temporal</t>
-        </is>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -9268,12 +9450,14 @@
       <c r="BR41">
         <v>0</v>
       </c>
+      <c r="BS41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Calculo_Renta_Vitalicia</t>
-        </is>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9482,12 +9666,14 @@
       <c r="BR42">
         <v>0</v>
       </c>
+      <c r="BS42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Retiro_Programado</t>
-        </is>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -9696,12 +9882,14 @@
       <c r="BR43">
         <v>0</v>
       </c>
+      <c r="BS43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Requisitos_RP</t>
-        </is>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -9910,12 +10098,14 @@
       <c r="BR44">
         <v>0</v>
       </c>
+      <c r="BS44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Calculo_Retiro_Programado</t>
-        </is>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10124,12 +10314,14 @@
       <c r="BR45">
         <v>0</v>
       </c>
+      <c r="BS45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>RVI_RP</t>
-        </is>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10338,12 +10530,14 @@
       <c r="BR46">
         <v>0</v>
       </c>
+      <c r="BS46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Requisitos_RVI_RP</t>
-        </is>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10552,12 +10746,14 @@
       <c r="BR47">
         <v>0</v>
       </c>
+      <c r="BS47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>RT_RVD</t>
-        </is>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10766,12 +10962,14 @@
       <c r="BR48">
         <v>0</v>
       </c>
+      <c r="BS48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Periodo_Diferimiento</t>
-        </is>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10980,12 +11178,14 @@
       <c r="BR49">
         <v>0</v>
       </c>
+      <c r="BS49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Requisitos_RT_RVD</t>
-        </is>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11194,12 +11394,14 @@
       <c r="BR50">
         <v>0</v>
       </c>
+      <c r="BS50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Calculo_Rentas_Combinadas</t>
-        </is>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11408,12 +11610,14 @@
       <c r="BR51">
         <v>0</v>
       </c>
+      <c r="BS51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Beneficiarios_Legales</t>
-        </is>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11622,12 +11826,14 @@
       <c r="BR52">
         <v>0</v>
       </c>
+      <c r="BS52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Declaracion_Beneficiarios</t>
-        </is>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -11836,12 +12042,14 @@
       <c r="BR53">
         <v>0</v>
       </c>
+      <c r="BS53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Pension_Sobrevivencia</t>
-        </is>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -12050,12 +12258,14 @@
       <c r="BR54">
         <v>0</v>
       </c>
+      <c r="BS54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Ejemplo_Calculo_Pension_Sobrevivencia</t>
-        </is>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -12264,12 +12474,14 @@
       <c r="BR55">
         <v>0</v>
       </c>
+      <c r="BS55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Herencia</t>
-        </is>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -12478,12 +12690,14 @@
       <c r="BR56">
         <v>0</v>
       </c>
+      <c r="BS56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Quien_Recibe_Herencia</t>
-        </is>
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -12692,12 +12906,14 @@
       <c r="BR57">
         <v>0</v>
       </c>
+      <c r="BS57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Como_Calcular_Herencia</t>
-        </is>
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -12906,12 +13122,14 @@
       <c r="BR58">
         <v>0</v>
       </c>
+      <c r="BS58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Definicion_APV</t>
-        </is>
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -13120,12 +13338,14 @@
       <c r="BR59">
         <v>0</v>
       </c>
+      <c r="BS59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Movilidad_Fondos_APV_Pension</t>
-        </is>
+    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -13334,12 +13554,14 @@
       <c r="BR60">
         <v>0</v>
       </c>
+      <c r="BS60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ELD</t>
-        </is>
+    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -13548,12 +13770,14 @@
       <c r="BR61">
         <v>0</v>
       </c>
+      <c r="BS61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Calculo_ELD</t>
-        </is>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -13762,12 +13986,14 @@
       <c r="BR62">
         <v>0</v>
       </c>
+      <c r="BS62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Tratamiento_Tributario_ELD</t>
-        </is>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -13976,12 +14202,14 @@
       <c r="BR63">
         <v>0</v>
       </c>
+      <c r="BS63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Impacto_Pension_ELD</t>
-        </is>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -14190,12 +14418,14 @@
       <c r="BR64">
         <v>0</v>
       </c>
+      <c r="BS64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Procedimiento_Retiro_ELD</t>
-        </is>
+    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -14404,12 +14634,14 @@
       <c r="BR65">
         <v>0</v>
       </c>
+      <c r="BS65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Asesores_Prev</t>
-        </is>
+    <row r="66" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -14618,12 +14850,14 @@
       <c r="BR66">
         <v>0</v>
       </c>
+      <c r="BS66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Comisiones_AFP</t>
-        </is>
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -14832,12 +15066,14 @@
       <c r="BR67">
         <v>0</v>
       </c>
+      <c r="BS67">
+        <f t="shared" ref="BS67:BS70" si="1">SUM(B67:BR67)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Comisiones_Aseguradoras</t>
-        </is>
+    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -15046,12 +15282,14 @@
       <c r="BR68">
         <v>0</v>
       </c>
+      <c r="BS68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Impacto_Comisiones</t>
-        </is>
+    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -15260,12 +15498,14 @@
       <c r="BR69">
         <v>1</v>
       </c>
+      <c r="BS69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Falta_Claridad_Comisiones</t>
-        </is>
+    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -15473,6 +15713,16 @@
       </c>
       <c r="BR70">
         <v>0</v>
+      </c>
+      <c r="BS70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BS71">
+        <f>SUM(BS2:BS70)</f>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
